--- a/data/tower_count/tower_count_2014.xlsx
+++ b/data/tower_count/tower_count_2014.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE0CA5B-B8F4-44B7-980F-31076D6B17BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="7935"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -51,9 +57,6 @@
     <t>4 atpu</t>
   </si>
   <si>
-    <t>fog</t>
-  </si>
-  <si>
     <t>2 cormorants</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
   </si>
   <si>
     <t>1 atpu 2 lagu</t>
-  </si>
-  <si>
-    <t>waves</t>
   </si>
   <si>
     <t>2 atpu  1 razo</t>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,6 +159,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -207,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +243,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +613,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>41804</v>
+        <v>41805</v>
+      </c>
+      <c r="B6">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>216</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -584,22 +636,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>41805</v>
+        <v>41806</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -607,22 +659,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41806</v>
+        <v>41807</v>
       </c>
       <c r="B8">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C8">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -630,22 +682,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>41807</v>
+        <v>41809</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C9">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D9">
         <v>32</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -653,30 +705,45 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41808</v>
+        <v>41810</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10">
+        <v>292</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>41809</v>
+        <v>41811</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C11">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -684,91 +751,91 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>41810</v>
+        <v>41812</v>
       </c>
       <c r="B12">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C12">
-        <v>292</v>
+        <v>379</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>41811</v>
+        <v>41813</v>
       </c>
       <c r="B13">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C13">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E13">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>41812</v>
+        <v>41814</v>
       </c>
       <c r="B14">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C14">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>41813</v>
+        <v>41815</v>
       </c>
       <c r="B15">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="C15">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -776,99 +843,114 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41814</v>
+        <v>41817</v>
       </c>
       <c r="B16">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C16">
-        <v>424</v>
+        <v>315</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>41815</v>
+        <v>41818</v>
       </c>
       <c r="B17">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C17">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>41816</v>
+        <v>41819</v>
+      </c>
+      <c r="B18">
+        <v>139</v>
+      </c>
+      <c r="C18">
+        <v>372</v>
+      </c>
+      <c r="D18">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>52</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>41817</v>
+        <v>41820</v>
       </c>
       <c r="B19">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="C19">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>41818</v>
+        <v>41821</v>
       </c>
       <c r="B20">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="C20">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
@@ -876,431 +958,266 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41819</v>
+        <v>41822</v>
       </c>
       <c r="B21">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="C21">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E21">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41820</v>
+        <v>41826</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C22">
-        <v>382</v>
+        <v>268</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41821</v>
+        <v>41827</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>50</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41822</v>
+        <v>41828</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C24">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="D24">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41823</v>
+        <v>41829</v>
+      </c>
+      <c r="B25">
+        <v>110</v>
+      </c>
+      <c r="C25">
+        <v>410</v>
+      </c>
+      <c r="D25">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41824</v>
+        <v>41830</v>
+      </c>
+      <c r="B26">
+        <v>112</v>
+      </c>
+      <c r="C26">
+        <v>415</v>
+      </c>
+      <c r="D26">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41825</v>
+        <v>41831</v>
+      </c>
+      <c r="B27">
+        <v>210</v>
+      </c>
+      <c r="C27">
+        <v>511</v>
+      </c>
+      <c r="D27">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>48</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41826</v>
+        <v>41832</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="C28">
-        <v>268</v>
+        <v>455</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F28">
         <v>18</v>
       </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41827</v>
+        <v>41840</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C29">
-        <v>336</v>
+        <v>516</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41828</v>
+        <v>41841</v>
       </c>
       <c r="B30">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C30">
-        <v>406</v>
+        <v>515</v>
       </c>
       <c r="D30">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>41829</v>
+        <v>41843</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C31">
-        <v>410</v>
+        <v>507</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E31">
-        <v>15</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>41830</v>
+        <v>41845</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C32">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="D32">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E32">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F32">
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>41831</v>
-      </c>
-      <c r="B33">
-        <v>210</v>
-      </c>
-      <c r="C33">
-        <v>511</v>
-      </c>
-      <c r="D33">
-        <v>38</v>
-      </c>
-      <c r="E33">
-        <v>48</v>
-      </c>
-      <c r="F33">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>41832</v>
-      </c>
-      <c r="B34">
-        <v>183</v>
-      </c>
-      <c r="C34">
-        <v>455</v>
-      </c>
-      <c r="D34">
-        <v>31</v>
-      </c>
-      <c r="E34">
-        <v>42</v>
-      </c>
-      <c r="F34">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>41833</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>41834</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>41835</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>41836</v>
-      </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>41837</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>41838</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>41839</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41840</v>
-      </c>
-      <c r="B42">
-        <v>137</v>
-      </c>
-      <c r="C42">
-        <v>516</v>
-      </c>
-      <c r="D42">
-        <v>40</v>
-      </c>
-      <c r="E42">
-        <v>45</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41841</v>
-      </c>
-      <c r="B43">
-        <v>114</v>
-      </c>
-      <c r="C43">
-        <v>515</v>
-      </c>
-      <c r="D43">
-        <v>35</v>
-      </c>
-      <c r="E43">
-        <v>60</v>
-      </c>
-      <c r="F43">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>41842</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>41843</v>
-      </c>
-      <c r="B45">
-        <v>131</v>
-      </c>
-      <c r="C45">
-        <v>507</v>
-      </c>
-      <c r="D45">
-        <v>60</v>
-      </c>
-      <c r="E45">
-        <v>42</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>41844</v>
-      </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>41845</v>
-      </c>
-      <c r="B47">
-        <v>172</v>
-      </c>
-      <c r="C47">
-        <v>556</v>
-      </c>
-      <c r="D47">
-        <v>68</v>
-      </c>
-      <c r="E47">
-        <v>71</v>
-      </c>
-      <c r="F47">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1321,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
